--- a/data_year/zb/对外经济贸易/按主要国别(地区)分对外直接投资/截至本年对外直接投资存量.xlsx
+++ b/data_year/zb/对外经济贸易/按主要国别(地区)分对外直接投资/截至本年对外直接投资存量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH14"/>
+  <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,1361 +603,1253 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18397071</v>
+        <v>31721059</v>
       </c>
       <c r="C2" t="n">
-        <v>156078</v>
+        <v>222929</v>
       </c>
       <c r="D2" t="n">
-        <v>11584528</v>
+        <v>19905557</v>
       </c>
       <c r="E2" t="n">
-        <v>13131699</v>
+        <v>22814597</v>
       </c>
       <c r="F2" t="n">
-        <v>183828</v>
+        <v>278756</v>
       </c>
       <c r="G2" t="n">
-        <v>9637</v>
+        <v>13641</v>
       </c>
       <c r="H2" t="n">
-        <v>126843</v>
+        <v>260260</v>
       </c>
       <c r="I2" t="n">
-        <v>365978</v>
+        <v>782926</v>
       </c>
       <c r="J2" t="n">
-        <v>304862</v>
+        <v>415298</v>
       </c>
       <c r="K2" t="n">
-        <v>54333</v>
+        <v>115044</v>
       </c>
       <c r="L2" t="n">
-        <v>17308</v>
+        <v>15287</v>
       </c>
       <c r="M2" t="n">
-        <v>381600</v>
+        <v>860729</v>
       </c>
       <c r="N2" t="n">
-        <v>79591</v>
+        <v>121085</v>
       </c>
       <c r="O2" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="P2" t="n">
-        <v>2032745</v>
+        <v>1725627</v>
       </c>
       <c r="Q2" t="n">
-        <v>84550</v>
+        <v>150229</v>
       </c>
       <c r="R2" t="n">
-        <v>3224015</v>
+        <v>4387564</v>
       </c>
       <c r="S2" t="n">
-        <v>333477</v>
+        <v>606910</v>
       </c>
       <c r="T2" t="n">
-        <v>6965</v>
+        <v>15911</v>
       </c>
       <c r="U2" t="n">
-        <v>50969</v>
+        <v>110563</v>
       </c>
       <c r="V2" t="n">
-        <v>513396</v>
+        <v>1571031</v>
       </c>
       <c r="W2" t="n">
-        <v>16713</v>
+        <v>24362</v>
       </c>
       <c r="X2" t="n">
-        <v>43716</v>
+        <v>108000</v>
       </c>
       <c r="Y2" t="n">
-        <v>335529</v>
+        <v>786775</v>
       </c>
       <c r="Z2" t="n">
-        <v>238990</v>
+        <v>487399</v>
       </c>
       <c r="AA2" t="n">
-        <v>52825</v>
+        <v>61336</v>
       </c>
       <c r="AB2" t="n">
-        <v>83766</v>
+        <v>135835</v>
       </c>
       <c r="AC2" t="n">
-        <v>1047733</v>
+        <v>2324276</v>
       </c>
       <c r="AD2" t="n">
-        <v>52173</v>
+        <v>98660</v>
       </c>
       <c r="AE2" t="n">
-        <v>50882</v>
+        <v>93726</v>
       </c>
       <c r="AF2" t="n">
-        <v>780383</v>
+        <v>1304212</v>
       </c>
       <c r="AG2" t="n">
-        <v>85034</v>
+        <v>63725</v>
       </c>
       <c r="AH2" t="n">
-        <v>14652</v>
+        <v>22987</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24575538</v>
+        <v>42478067</v>
       </c>
       <c r="C3" t="n">
-        <v>183723</v>
+        <v>267589</v>
       </c>
       <c r="D3" t="n">
-        <v>16449894</v>
+        <v>26151852</v>
       </c>
       <c r="E3" t="n">
-        <v>18554720</v>
+        <v>30343470</v>
       </c>
       <c r="F3" t="n">
-        <v>222037</v>
+        <v>376364</v>
       </c>
       <c r="G3" t="n">
-        <v>12932</v>
+        <v>16843</v>
       </c>
       <c r="H3" t="n">
-        <v>167034</v>
+        <v>372756</v>
       </c>
       <c r="I3" t="n">
-        <v>518470</v>
+        <v>1347243</v>
       </c>
       <c r="J3" t="n">
-        <v>230686</v>
+        <v>405973</v>
       </c>
       <c r="K3" t="n">
-        <v>79906</v>
+        <v>168791</v>
       </c>
       <c r="L3" t="n">
-        <v>17390</v>
+        <v>26388</v>
       </c>
       <c r="M3" t="n">
-        <v>641895</v>
+        <v>1200744</v>
       </c>
       <c r="N3" t="n">
-        <v>102596</v>
+        <v>141561</v>
       </c>
       <c r="O3" t="n">
         <v>160</v>
       </c>
       <c r="P3" t="n">
-        <v>1357707</v>
+        <v>2169232</v>
       </c>
       <c r="Q3" t="n">
-        <v>108224</v>
+        <v>240144</v>
       </c>
       <c r="R3" t="n">
-        <v>3059548</v>
+        <v>5517175</v>
       </c>
       <c r="S3" t="n">
-        <v>485732</v>
+        <v>1060269</v>
       </c>
       <c r="T3" t="n">
-        <v>9385</v>
+        <v>18546</v>
       </c>
       <c r="U3" t="n">
-        <v>69286</v>
+        <v>136622</v>
       </c>
       <c r="V3" t="n">
-        <v>867678</v>
+        <v>2445003</v>
       </c>
       <c r="W3" t="n">
-        <v>22103</v>
+        <v>372389</v>
       </c>
       <c r="X3" t="n">
-        <v>44788</v>
+        <v>130726</v>
       </c>
       <c r="Y3" t="n">
-        <v>586310</v>
+        <v>1104125</v>
       </c>
       <c r="Z3" t="n">
-        <v>333842</v>
+        <v>899303</v>
       </c>
       <c r="AA3" t="n">
-        <v>56389</v>
+        <v>152564</v>
       </c>
       <c r="AB3" t="n">
-        <v>102828</v>
+        <v>253058</v>
       </c>
       <c r="AC3" t="n">
-        <v>1506069</v>
+        <v>2926141</v>
       </c>
       <c r="AD3" t="n">
-        <v>72850</v>
+        <v>129066</v>
       </c>
       <c r="AE3" t="n">
-        <v>75126</v>
+        <v>105945</v>
       </c>
       <c r="AF3" t="n">
-        <v>933227</v>
+        <v>1624432</v>
       </c>
       <c r="AG3" t="n">
-        <v>121780</v>
+        <v>158268</v>
       </c>
       <c r="AH3" t="n">
-        <v>19622</v>
+        <v>25363</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31721059</v>
+        <v>53194058</v>
       </c>
       <c r="C4" t="n">
-        <v>222929</v>
+        <v>292927</v>
       </c>
       <c r="D4" t="n">
-        <v>19905557</v>
+        <v>30637245</v>
       </c>
       <c r="E4" t="n">
-        <v>22814597</v>
+        <v>36440706</v>
       </c>
       <c r="F4" t="n">
-        <v>278756</v>
+        <v>488849</v>
       </c>
       <c r="G4" t="n">
-        <v>13641</v>
+        <v>23467</v>
       </c>
       <c r="H4" t="n">
-        <v>260260</v>
+        <v>505072</v>
       </c>
       <c r="I4" t="n">
-        <v>782926</v>
+        <v>2550299</v>
       </c>
       <c r="J4" t="n">
-        <v>415298</v>
+        <v>477507</v>
       </c>
       <c r="K4" t="n">
-        <v>115044</v>
+        <v>309804</v>
       </c>
       <c r="L4" t="n">
-        <v>15287</v>
+        <v>36848</v>
       </c>
       <c r="M4" t="n">
-        <v>860729</v>
+        <v>1511407</v>
       </c>
       <c r="N4" t="n">
-        <v>121085</v>
-      </c>
-      <c r="O4" t="n">
-        <v>160</v>
-      </c>
+        <v>194987</v>
+      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>1725627</v>
+        <v>3007200</v>
       </c>
       <c r="Q4" t="n">
-        <v>150229</v>
+        <v>310435</v>
       </c>
       <c r="R4" t="n">
-        <v>4387564</v>
+        <v>6821163</v>
       </c>
       <c r="S4" t="n">
-        <v>606910</v>
+        <v>1238333</v>
       </c>
       <c r="T4" t="n">
-        <v>15911</v>
+        <v>27385</v>
       </c>
       <c r="U4" t="n">
-        <v>110563</v>
+        <v>161991</v>
       </c>
       <c r="V4" t="n">
-        <v>1571031</v>
+        <v>3697512</v>
       </c>
       <c r="W4" t="n">
-        <v>24362</v>
+        <v>395077</v>
       </c>
       <c r="X4" t="n">
-        <v>108000</v>
+        <v>212693</v>
       </c>
       <c r="Y4" t="n">
-        <v>786775</v>
+        <v>1387305</v>
       </c>
       <c r="Z4" t="n">
-        <v>487399</v>
+        <v>1707977</v>
       </c>
       <c r="AA4" t="n">
-        <v>61336</v>
+        <v>123660</v>
       </c>
       <c r="AB4" t="n">
-        <v>135835</v>
+        <v>893427</v>
       </c>
       <c r="AC4" t="n">
-        <v>2324276</v>
+        <v>3085095</v>
       </c>
       <c r="AD4" t="n">
-        <v>98660</v>
+        <v>160438</v>
       </c>
       <c r="AE4" t="n">
-        <v>93726</v>
+        <v>130533</v>
       </c>
       <c r="AF4" t="n">
-        <v>1304212</v>
+        <v>2172971</v>
       </c>
       <c r="AG4" t="n">
-        <v>63725</v>
+        <v>308190</v>
       </c>
       <c r="AH4" t="n">
-        <v>22987</v>
+        <v>27455</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42478067</v>
+        <v>66047840</v>
       </c>
       <c r="C5" t="n">
-        <v>267589</v>
+        <v>340914</v>
       </c>
       <c r="D5" t="n">
-        <v>26151852</v>
+        <v>37709314</v>
       </c>
       <c r="E5" t="n">
-        <v>30343470</v>
+        <v>44740828</v>
       </c>
       <c r="F5" t="n">
-        <v>376364</v>
+        <v>758161</v>
       </c>
       <c r="G5" t="n">
-        <v>16843</v>
+        <v>33858</v>
       </c>
       <c r="H5" t="n">
-        <v>372756</v>
+        <v>619619</v>
       </c>
       <c r="I5" t="n">
-        <v>1347243</v>
+        <v>2860974</v>
       </c>
       <c r="J5" t="n">
-        <v>405973</v>
+        <v>440040</v>
       </c>
       <c r="K5" t="n">
-        <v>168791</v>
+        <v>465665</v>
       </c>
       <c r="L5" t="n">
-        <v>26388</v>
+        <v>40987</v>
       </c>
       <c r="M5" t="n">
-        <v>1200744</v>
+        <v>1901712</v>
       </c>
       <c r="N5" t="n">
-        <v>141561</v>
-      </c>
-      <c r="O5" t="n">
-        <v>160</v>
-      </c>
+        <v>214607</v>
+      </c>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>2169232</v>
+        <v>4232406</v>
       </c>
       <c r="Q5" t="n">
-        <v>240144</v>
+        <v>397938</v>
       </c>
       <c r="R5" t="n">
-        <v>5517175</v>
+        <v>8609593</v>
       </c>
       <c r="S5" t="n">
-        <v>1060269</v>
+        <v>1475070</v>
       </c>
       <c r="T5" t="n">
-        <v>18546</v>
+        <v>54173</v>
       </c>
       <c r="U5" t="n">
-        <v>136622</v>
+        <v>189824</v>
       </c>
       <c r="V5" t="n">
-        <v>2445003</v>
+        <v>5316156</v>
       </c>
       <c r="W5" t="n">
-        <v>372389</v>
+        <v>444794</v>
       </c>
       <c r="X5" t="n">
-        <v>130726</v>
+        <v>247243</v>
       </c>
       <c r="Y5" t="n">
-        <v>1104125</v>
+        <v>1744968</v>
       </c>
       <c r="Z5" t="n">
-        <v>899303</v>
+        <v>2189956</v>
       </c>
       <c r="AA5" t="n">
-        <v>152564</v>
+        <v>150704</v>
       </c>
       <c r="AB5" t="n">
-        <v>253058</v>
+        <v>1179790</v>
       </c>
       <c r="AC5" t="n">
-        <v>2926141</v>
+        <v>3390298</v>
       </c>
       <c r="AD5" t="n">
-        <v>129066</v>
+        <v>216672</v>
       </c>
       <c r="AE5" t="n">
-        <v>105945</v>
+        <v>149721</v>
       </c>
       <c r="AF5" t="n">
-        <v>1624432</v>
+        <v>2618577</v>
       </c>
       <c r="AG5" t="n">
-        <v>158268</v>
+        <v>196308</v>
       </c>
       <c r="AH5" t="n">
-        <v>25363</v>
+        <v>28610</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53194058</v>
+        <v>88264242</v>
       </c>
       <c r="C6" t="n">
-        <v>292927</v>
+        <v>393074</v>
       </c>
       <c r="D6" t="n">
-        <v>30637245</v>
+        <v>50991983</v>
       </c>
       <c r="E6" t="n">
-        <v>36440706</v>
+        <v>60096561</v>
       </c>
       <c r="F6" t="n">
-        <v>488849</v>
+        <v>869463</v>
       </c>
       <c r="G6" t="n">
-        <v>23467</v>
+        <v>41907</v>
       </c>
       <c r="H6" t="n">
-        <v>505072</v>
+        <v>778908</v>
       </c>
       <c r="I6" t="n">
-        <v>2550299</v>
+        <v>4795149</v>
       </c>
       <c r="J6" t="n">
-        <v>477507</v>
+        <v>595402</v>
       </c>
       <c r="K6" t="n">
-        <v>309804</v>
+        <v>679350</v>
       </c>
       <c r="L6" t="n">
-        <v>36848</v>
+        <v>54121</v>
       </c>
       <c r="M6" t="n">
-        <v>1511407</v>
+        <v>2586425</v>
       </c>
       <c r="N6" t="n">
-        <v>194987</v>
+        <v>232301</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>3007200</v>
+        <v>4423672</v>
       </c>
       <c r="Q6" t="n">
-        <v>310435</v>
+        <v>578550</v>
       </c>
       <c r="R6" t="n">
-        <v>6821163</v>
+        <v>10611113</v>
       </c>
       <c r="S6" t="n">
-        <v>1238333</v>
+        <v>2063995</v>
       </c>
       <c r="T6" t="n">
-        <v>27385</v>
+        <v>96241</v>
       </c>
       <c r="U6" t="n">
-        <v>161991</v>
+        <v>254704</v>
       </c>
       <c r="V6" t="n">
-        <v>3697512</v>
+        <v>6939987</v>
       </c>
       <c r="W6" t="n">
-        <v>395077</v>
+        <v>844488</v>
       </c>
       <c r="X6" t="n">
-        <v>212693</v>
+        <v>307947</v>
       </c>
       <c r="Y6" t="n">
-        <v>1387305</v>
+        <v>2388226</v>
       </c>
       <c r="Z6" t="n">
-        <v>1707977</v>
+        <v>3801097</v>
       </c>
       <c r="AA6" t="n">
-        <v>123660</v>
+        <v>174712</v>
       </c>
       <c r="AB6" t="n">
-        <v>893427</v>
+        <v>1280465</v>
       </c>
       <c r="AC6" t="n">
-        <v>3085095</v>
+        <v>4932041</v>
       </c>
       <c r="AD6" t="n">
-        <v>160438</v>
+        <v>286565</v>
       </c>
       <c r="AE6" t="n">
-        <v>130533</v>
+        <v>245157</v>
       </c>
       <c r="AF6" t="n">
-        <v>2172971</v>
+        <v>3235007</v>
       </c>
       <c r="AG6" t="n">
-        <v>308190</v>
+        <v>277157</v>
       </c>
       <c r="AH6" t="n">
-        <v>27455</v>
+        <v>35261</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66047840</v>
+        <v>109786459</v>
       </c>
       <c r="C7" t="n">
-        <v>340914</v>
+        <v>573912</v>
       </c>
       <c r="D7" t="n">
-        <v>37709314</v>
+        <v>65685524</v>
       </c>
       <c r="E7" t="n">
-        <v>44740828</v>
+        <v>76890132</v>
       </c>
       <c r="F7" t="n">
-        <v>758161</v>
+        <v>1401962.651498</v>
       </c>
       <c r="G7" t="n">
-        <v>33858</v>
+        <v>38272</v>
       </c>
       <c r="H7" t="n">
-        <v>619619</v>
+        <v>851624.6471309999</v>
       </c>
       <c r="I7" t="n">
-        <v>2860974</v>
+        <v>5217926</v>
       </c>
       <c r="J7" t="n">
-        <v>440040</v>
+        <v>472296.874529</v>
       </c>
       <c r="K7" t="n">
-        <v>465665</v>
+        <v>812513.641401</v>
       </c>
       <c r="L7" t="n">
-        <v>40987</v>
+        <v>52475.5462</v>
       </c>
       <c r="M7" t="n">
-        <v>1901712</v>
+        <v>3209171</v>
       </c>
       <c r="N7" t="n">
-        <v>214607</v>
+        <v>237676</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>4232406</v>
+        <v>6240408.091821</v>
       </c>
       <c r="Q7" t="n">
-        <v>397938</v>
+        <v>588176.428857</v>
       </c>
       <c r="R7" t="n">
-        <v>8609593</v>
+        <v>12631893</v>
       </c>
       <c r="S7" t="n">
-        <v>1475070</v>
+        <v>3198491.043138</v>
       </c>
       <c r="T7" t="n">
-        <v>54173</v>
+        <v>120871.866842</v>
       </c>
       <c r="U7" t="n">
-        <v>189824</v>
+        <v>303819.726139</v>
       </c>
       <c r="V7" t="n">
-        <v>5316156</v>
+        <v>8367897</v>
       </c>
       <c r="W7" t="n">
-        <v>444794</v>
+        <v>572354.650016</v>
       </c>
       <c r="X7" t="n">
-        <v>247243</v>
+        <v>344012.389563</v>
       </c>
       <c r="Y7" t="n">
-        <v>1744968</v>
+        <v>2837384.755605</v>
       </c>
       <c r="Z7" t="n">
-        <v>2189956</v>
+        <v>4080195.337247</v>
       </c>
       <c r="AA7" t="n">
-        <v>150704</v>
+        <v>180936</v>
       </c>
       <c r="AB7" t="n">
-        <v>1179790</v>
+        <v>1663246.14295</v>
       </c>
       <c r="AC7" t="n">
-        <v>3390298</v>
+        <v>5167214.030572</v>
       </c>
       <c r="AD7" t="n">
-        <v>216672</v>
+        <v>337355.578264</v>
       </c>
       <c r="AE7" t="n">
-        <v>149721</v>
+        <v>253155</v>
       </c>
       <c r="AF7" t="n">
-        <v>2618577</v>
+        <v>3469440</v>
       </c>
       <c r="AG7" t="n">
-        <v>196308</v>
+        <v>369804.149589</v>
       </c>
       <c r="AH7" t="n">
-        <v>28610</v>
+        <v>34770</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>88264242</v>
+        <v>135739045</v>
       </c>
       <c r="C8" t="n">
-        <v>393074</v>
+        <v>678339</v>
       </c>
       <c r="D8" t="n">
-        <v>50991983</v>
+        <v>78074489</v>
       </c>
       <c r="E8" t="n">
-        <v>60096561</v>
+        <v>90944547</v>
       </c>
       <c r="F8" t="n">
-        <v>869463</v>
+        <v>1297951</v>
       </c>
       <c r="G8" t="n">
-        <v>41907</v>
+        <v>41774</v>
       </c>
       <c r="H8" t="n">
-        <v>778908</v>
+        <v>1272599</v>
       </c>
       <c r="I8" t="n">
-        <v>4795149</v>
+        <v>7547246</v>
       </c>
       <c r="J8" t="n">
-        <v>595402</v>
+        <v>650084</v>
       </c>
       <c r="K8" t="n">
-        <v>679350</v>
+        <v>954554</v>
       </c>
       <c r="L8" t="n">
-        <v>54121</v>
+        <v>57860</v>
       </c>
       <c r="M8" t="n">
-        <v>2586425</v>
+        <v>3824056</v>
       </c>
       <c r="N8" t="n">
-        <v>232301</v>
+        <v>254168</v>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>4423672</v>
+        <v>10420893</v>
       </c>
       <c r="Q8" t="n">
-        <v>578550</v>
+        <v>784175</v>
       </c>
       <c r="R8" t="n">
-        <v>10611113</v>
+        <v>20715257</v>
       </c>
       <c r="S8" t="n">
-        <v>2063995</v>
+        <v>3344564</v>
       </c>
       <c r="T8" t="n">
-        <v>96241</v>
+        <v>210247</v>
       </c>
       <c r="U8" t="n">
-        <v>254704</v>
+        <v>318401</v>
       </c>
       <c r="V8" t="n">
-        <v>6939987</v>
+        <v>8720192</v>
       </c>
       <c r="W8" t="n">
-        <v>844488</v>
+        <v>511617</v>
       </c>
       <c r="X8" t="n">
-        <v>307947</v>
+        <v>453348</v>
       </c>
       <c r="Y8" t="n">
-        <v>2388226</v>
+        <v>3335056</v>
       </c>
       <c r="Z8" t="n">
-        <v>3801097</v>
+        <v>6057998</v>
       </c>
       <c r="AA8" t="n">
-        <v>174712</v>
+        <v>110434</v>
       </c>
       <c r="AB8" t="n">
-        <v>1280465</v>
+        <v>1761210</v>
       </c>
       <c r="AC8" t="n">
-        <v>4932041</v>
+        <v>8876589</v>
       </c>
       <c r="AD8" t="n">
-        <v>286565</v>
+        <v>498363</v>
       </c>
       <c r="AE8" t="n">
-        <v>245157</v>
+        <v>255248</v>
       </c>
       <c r="AF8" t="n">
-        <v>3235007</v>
+        <v>3987747</v>
       </c>
       <c r="AG8" t="n">
-        <v>277157</v>
+        <v>423724</v>
       </c>
       <c r="AH8" t="n">
-        <v>35261</v>
+        <v>29763</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>109786459</v>
+        <v>180903652</v>
       </c>
       <c r="C9" t="n">
-        <v>573912</v>
+        <v>968029.1800000001</v>
       </c>
       <c r="D9" t="n">
-        <v>65685524</v>
+        <v>98126567.86</v>
       </c>
       <c r="E9" t="n">
-        <v>76890132</v>
+        <v>113932379</v>
       </c>
       <c r="F9" t="n">
-        <v>1401962.651498</v>
+        <v>1387159.55</v>
       </c>
       <c r="G9" t="n">
-        <v>38272</v>
+        <v>7638.98</v>
       </c>
       <c r="H9" t="n">
-        <v>851624.6471309999</v>
+        <v>1093685.77</v>
       </c>
       <c r="I9" t="n">
-        <v>5217926</v>
+        <v>8690597</v>
       </c>
       <c r="J9" t="n">
-        <v>472296.874529</v>
+        <v>747276.87</v>
       </c>
       <c r="K9" t="n">
-        <v>812513.641401</v>
+        <v>1053880.32</v>
       </c>
       <c r="L9" t="n">
-        <v>52475.5462</v>
+        <v>89801.58</v>
       </c>
       <c r="M9" t="n">
-        <v>3209171</v>
+        <v>4176327</v>
       </c>
       <c r="N9" t="n">
-        <v>237676</v>
+        <v>286152.88</v>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>6240408.091821</v>
+        <v>24968218.63</v>
       </c>
       <c r="Q9" t="n">
-        <v>588176.428857</v>
+        <v>1216319.61</v>
       </c>
       <c r="R9" t="n">
-        <v>12631893</v>
+        <v>38689230</v>
       </c>
       <c r="S9" t="n">
-        <v>3198491.043138</v>
+        <v>4456809.16</v>
       </c>
       <c r="T9" t="n">
-        <v>120871.866842</v>
+        <v>249179.78</v>
       </c>
       <c r="U9" t="n">
-        <v>303819.726139</v>
+        <v>319733.66</v>
       </c>
       <c r="V9" t="n">
-        <v>8367897</v>
+        <v>11085468</v>
       </c>
       <c r="W9" t="n">
-        <v>572354.650016</v>
+        <v>570270.62</v>
       </c>
       <c r="X9" t="n">
-        <v>344012.389563</v>
+        <v>535846.74</v>
       </c>
       <c r="Y9" t="n">
-        <v>2837384.755605</v>
+        <v>3617530.72</v>
       </c>
       <c r="Z9" t="n">
-        <v>4080195.337247</v>
+        <v>6738100.44</v>
       </c>
       <c r="AA9" t="n">
-        <v>180936</v>
+        <v>120156.47</v>
       </c>
       <c r="AB9" t="n">
-        <v>1663246.14295</v>
+        <v>2031817.3</v>
       </c>
       <c r="AC9" t="n">
-        <v>5167214.030572</v>
+        <v>12206074.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>337355.578264</v>
+        <v>496535.73</v>
       </c>
       <c r="AE9" t="n">
-        <v>253155</v>
+        <v>183366.2</v>
       </c>
       <c r="AF9" t="n">
-        <v>3469440</v>
+        <v>4329650</v>
       </c>
       <c r="AG9" t="n">
-        <v>369804.149589</v>
+        <v>598347.41</v>
       </c>
       <c r="AH9" t="n">
-        <v>34770</v>
+        <v>76629.97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>135739045</v>
+        <v>198226585.313849</v>
       </c>
       <c r="C10" t="n">
-        <v>678339</v>
+        <v>886578.231686</v>
       </c>
       <c r="D10" t="n">
-        <v>78074489</v>
+        <v>110039107.709752</v>
       </c>
       <c r="E10" t="n">
-        <v>90944547</v>
+        <v>127613436.591083</v>
       </c>
       <c r="F10" t="n">
-        <v>1297951</v>
+        <v>1420821.932726</v>
       </c>
       <c r="G10" t="n">
-        <v>41774</v>
+        <v>74244.28</v>
       </c>
       <c r="H10" t="n">
-        <v>1272599</v>
+        <v>1252272.239036</v>
       </c>
       <c r="I10" t="n">
-        <v>7547246</v>
+        <v>9634833.083551999</v>
       </c>
       <c r="J10" t="n">
-        <v>650084</v>
+        <v>653167.74846</v>
       </c>
       <c r="K10" t="n">
-        <v>954554</v>
+        <v>1281128.456624</v>
       </c>
       <c r="L10" t="n">
-        <v>57860</v>
+        <v>110688.221056</v>
       </c>
       <c r="M10" t="n">
-        <v>3824056</v>
+        <v>4411077.648021</v>
       </c>
       <c r="N10" t="n">
-        <v>254168</v>
+        <v>245348.53</v>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>10420893</v>
+        <v>25922371.422974</v>
       </c>
       <c r="Q10" t="n">
-        <v>784175</v>
+        <v>1368861.05482</v>
       </c>
       <c r="R10" t="n">
-        <v>20715257</v>
+        <v>40677193.117522</v>
       </c>
       <c r="S10" t="n">
-        <v>3344564</v>
+        <v>5009382.96221</v>
       </c>
       <c r="T10" t="n">
-        <v>210247</v>
+        <v>259120.315504</v>
       </c>
       <c r="U10" t="n">
-        <v>318401</v>
+        <v>349052.481389</v>
       </c>
       <c r="V10" t="n">
-        <v>8720192</v>
+        <v>11279692.098878</v>
       </c>
       <c r="W10" t="n">
-        <v>511617</v>
+        <v>659879.494147</v>
       </c>
       <c r="X10" t="n">
-        <v>453348</v>
+        <v>594669.52512</v>
       </c>
       <c r="Y10" t="n">
-        <v>3335056</v>
+        <v>3837867.782517</v>
       </c>
       <c r="Z10" t="n">
-        <v>6057998</v>
+        <v>7550728.977214</v>
       </c>
       <c r="AA10" t="n">
-        <v>110434</v>
+        <v>132507.08</v>
       </c>
       <c r="AB10" t="n">
-        <v>1761210</v>
+        <v>1988323.021932</v>
       </c>
       <c r="AC10" t="n">
-        <v>8876589</v>
+        <v>13049678.24782</v>
       </c>
       <c r="AD10" t="n">
-        <v>498363</v>
+        <v>560543.276923</v>
       </c>
       <c r="AE10" t="n">
-        <v>255248</v>
+        <v>206285.56</v>
       </c>
       <c r="AF10" t="n">
-        <v>3987747</v>
+        <v>4610352.774793</v>
       </c>
       <c r="AG10" t="n">
-        <v>423724</v>
+        <v>671011.16983</v>
       </c>
       <c r="AH10" t="n">
-        <v>29763</v>
+        <v>80335.37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>180903652</v>
+        <v>219888069</v>
       </c>
       <c r="C11" t="n">
-        <v>968029.1800000001</v>
+        <v>985168.41299</v>
       </c>
       <c r="D11" t="n">
-        <v>98126567.86</v>
+        <v>127535517.883809</v>
       </c>
       <c r="E11" t="n">
-        <v>113932379</v>
+        <v>146022156</v>
       </c>
       <c r="F11" t="n">
-        <v>1387159.55</v>
+        <v>1280397.086415</v>
       </c>
       <c r="G11" t="n">
-        <v>7638.98</v>
+        <v>76325.57000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>1093685.77</v>
+        <v>1409146.857869</v>
       </c>
       <c r="I11" t="n">
-        <v>8690597</v>
+        <v>10022553</v>
       </c>
       <c r="J11" t="n">
-        <v>747276.87</v>
+        <v>614657.066919</v>
       </c>
       <c r="K11" t="n">
-        <v>1053880.32</v>
+        <v>1513254.604628</v>
       </c>
       <c r="L11" t="n">
-        <v>89801.58</v>
+        <v>116107.978795</v>
       </c>
       <c r="M11" t="n">
-        <v>4176327</v>
+        <v>4361255</v>
       </c>
       <c r="N11" t="n">
-        <v>286152.88</v>
+        <v>219400.21</v>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>24968218.63</v>
+        <v>27614505.707485</v>
       </c>
       <c r="Q11" t="n">
-        <v>1216319.61</v>
+        <v>1423399.467937</v>
       </c>
       <c r="R11" t="n">
-        <v>38689230</v>
+        <v>43604697</v>
       </c>
       <c r="S11" t="n">
-        <v>4456809.16</v>
+        <v>5263655.716304</v>
       </c>
       <c r="T11" t="n">
-        <v>249179.78</v>
+        <v>245973.202172</v>
       </c>
       <c r="U11" t="n">
-        <v>319733.66</v>
+        <v>409805.230603</v>
       </c>
       <c r="V11" t="n">
-        <v>11085468</v>
+        <v>11438386</v>
       </c>
       <c r="W11" t="n">
-        <v>570270.62</v>
+        <v>595434.017903</v>
       </c>
       <c r="X11" t="n">
-        <v>535846.74</v>
+        <v>718584.7770070001</v>
       </c>
       <c r="Y11" t="n">
-        <v>3617530.72</v>
+        <v>3806838.275147</v>
       </c>
       <c r="Z11" t="n">
-        <v>6738100.44</v>
+        <v>7779749.51667</v>
       </c>
       <c r="AA11" t="n">
-        <v>120156.47</v>
+        <v>120309.36</v>
       </c>
       <c r="AB11" t="n">
-        <v>2031817.3</v>
+        <v>1714389.945203</v>
       </c>
       <c r="AC11" t="n">
-        <v>12206074.5</v>
+        <v>14187883.51016</v>
       </c>
       <c r="AD11" t="n">
-        <v>496535.73</v>
+        <v>707371.031958</v>
       </c>
       <c r="AE11" t="n">
-        <v>183366.2</v>
+        <v>177534.96</v>
       </c>
       <c r="AF11" t="n">
-        <v>4329650</v>
+        <v>4439022</v>
       </c>
       <c r="AG11" t="n">
-        <v>598347.41</v>
+        <v>667340.137456</v>
       </c>
       <c r="AH11" t="n">
-        <v>76629.97</v>
+        <v>27291.23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>198226585.313849</v>
+        <v>258065844.306396</v>
       </c>
       <c r="C12" t="n">
-        <v>886578.231686</v>
+        <v>1053233.953556</v>
       </c>
       <c r="D12" t="n">
-        <v>110039107.709752</v>
+        <v>143853091.529841</v>
       </c>
       <c r="E12" t="n">
-        <v>127613436.591083</v>
+        <v>164489399.729261</v>
       </c>
       <c r="F12" t="n">
-        <v>1420821.932726</v>
+        <v>1207089.393567</v>
       </c>
       <c r="G12" t="n">
-        <v>74244.28</v>
+        <v>47282.24</v>
       </c>
       <c r="H12" t="n">
-        <v>1252272.239036</v>
+        <v>1248513.46443</v>
       </c>
       <c r="I12" t="n">
-        <v>9634833.083551999</v>
+        <v>10001633.113117</v>
       </c>
       <c r="J12" t="n">
-        <v>653167.74846</v>
+        <v>541721.716504</v>
       </c>
       <c r="K12" t="n">
-        <v>1281128.456624</v>
+        <v>1793883.083799</v>
       </c>
       <c r="L12" t="n">
-        <v>110688.221056</v>
+        <v>116695.426536</v>
       </c>
       <c r="M12" t="n">
-        <v>4411077.648021</v>
+        <v>4010677.202929</v>
       </c>
       <c r="N12" t="n">
-        <v>245348.53</v>
+        <v>236753.8</v>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>25922371.422974</v>
+        <v>45702698.954129</v>
       </c>
       <c r="Q12" t="n">
-        <v>1368861.05482</v>
+        <v>1454957.993778</v>
       </c>
       <c r="R12" t="n">
-        <v>40677193.117522</v>
+        <v>62981025.07272</v>
       </c>
       <c r="S12" t="n">
-        <v>5009382.96221</v>
+        <v>5985784.675753</v>
       </c>
       <c r="T12" t="n">
-        <v>259120.315504</v>
+        <v>286784.022132</v>
       </c>
       <c r="U12" t="n">
-        <v>349052.481389</v>
+        <v>419671.613777</v>
       </c>
       <c r="V12" t="n">
-        <v>11279692.098878</v>
+        <v>12243188.870088</v>
       </c>
       <c r="W12" t="n">
-        <v>659879.494147</v>
+        <v>486095.152674</v>
       </c>
       <c r="X12" t="n">
-        <v>594669.52512</v>
+        <v>882554.553131</v>
       </c>
       <c r="Y12" t="n">
-        <v>3837867.782517</v>
+        <v>3443936.480797</v>
       </c>
       <c r="Z12" t="n">
-        <v>7550728.977214</v>
+        <v>8004771.176905</v>
       </c>
       <c r="AA12" t="n">
-        <v>132507.08</v>
+        <v>112029.62</v>
       </c>
       <c r="AB12" t="n">
-        <v>1988323.021932</v>
+        <v>1764592.096493</v>
       </c>
       <c r="AC12" t="n">
-        <v>13049678.24782</v>
+        <v>15564495.09941</v>
       </c>
       <c r="AD12" t="n">
-        <v>560543.276923</v>
+        <v>857456.470997</v>
       </c>
       <c r="AE12" t="n">
-        <v>206285.56</v>
+        <v>164351.74</v>
       </c>
       <c r="AF12" t="n">
-        <v>4610352.774793</v>
+        <v>4339920.318281</v>
       </c>
       <c r="AG12" t="n">
-        <v>671011.16983</v>
+        <v>705473.350045</v>
       </c>
       <c r="AH12" t="n">
-        <v>80335.37</v>
+        <v>39073.58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2019年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>219888069</v>
+        <v>278514971</v>
       </c>
       <c r="C13" t="n">
-        <v>985168.41299</v>
+        <v>1123624</v>
       </c>
       <c r="D13" t="n">
-        <v>127535517.883809</v>
+        <v>154965764</v>
       </c>
       <c r="E13" t="n">
-        <v>146022156</v>
+        <v>177201520</v>
       </c>
       <c r="F13" t="n">
-        <v>1280397.086415</v>
+        <v>1064411</v>
       </c>
       <c r="G13" t="n">
-        <v>76325.57000000001</v>
+        <v>95933</v>
       </c>
       <c r="H13" t="n">
-        <v>1409146.857869</v>
+        <v>1379315</v>
       </c>
       <c r="I13" t="n">
-        <v>10022553</v>
+        <v>10022580</v>
       </c>
       <c r="J13" t="n">
-        <v>614657.066919</v>
+        <v>529417</v>
       </c>
       <c r="K13" t="n">
-        <v>1513254.604628</v>
+        <v>2008048</v>
       </c>
       <c r="L13" t="n">
-        <v>116107.978795</v>
+        <v>130216</v>
       </c>
       <c r="M13" t="n">
-        <v>4361255</v>
+        <v>4018796</v>
       </c>
       <c r="N13" t="n">
-        <v>219400.21</v>
+        <v>269579</v>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>27614505.707485</v>
+        <v>22952507</v>
       </c>
       <c r="Q13" t="n">
-        <v>1423399.467937</v>
+        <v>1669749</v>
       </c>
       <c r="R13" t="n">
-        <v>43604697</v>
+        <v>69374017</v>
       </c>
       <c r="S13" t="n">
-        <v>5263655.716304</v>
+        <v>6720228</v>
       </c>
       <c r="T13" t="n">
-        <v>245973.202172</v>
+        <v>312871</v>
       </c>
       <c r="U13" t="n">
-        <v>409805.230603</v>
+        <v>488287</v>
       </c>
       <c r="V13" t="n">
-        <v>11438386</v>
+        <v>13479438</v>
       </c>
       <c r="W13" t="n">
-        <v>595434.017903</v>
+        <v>486390</v>
       </c>
       <c r="X13" t="n">
-        <v>718584.7770070001</v>
+        <v>991721</v>
       </c>
       <c r="Y13" t="n">
-        <v>3806838.275147</v>
+        <v>3443047</v>
       </c>
       <c r="Z13" t="n">
-        <v>7779749.51667</v>
+        <v>7717236</v>
       </c>
       <c r="AA13" t="n">
-        <v>120309.36</v>
+        <v>111552</v>
       </c>
       <c r="AB13" t="n">
-        <v>1714389.945203</v>
+        <v>1900531</v>
       </c>
       <c r="AC13" t="n">
-        <v>14187883.51016</v>
+        <v>44747734</v>
       </c>
       <c r="AD13" t="n">
-        <v>707371.031958</v>
+        <v>1085211</v>
       </c>
       <c r="AE13" t="n">
-        <v>177534.96</v>
+        <v>171602</v>
       </c>
       <c r="AF13" t="n">
-        <v>4439022</v>
+        <v>4418621</v>
       </c>
       <c r="AG13" t="n">
-        <v>667340.137456</v>
+        <v>660150</v>
       </c>
       <c r="AH13" t="n">
-        <v>27291.23</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>258065844.306396</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1053233.953556</v>
-      </c>
-      <c r="D14" t="n">
-        <v>143853091.529841</v>
-      </c>
-      <c r="E14" t="n">
-        <v>164489399.729261</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1207089.393567</v>
-      </c>
-      <c r="G14" t="n">
-        <v>47282.24</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1248513.46443</v>
-      </c>
-      <c r="I14" t="n">
-        <v>10001633.113117</v>
-      </c>
-      <c r="J14" t="n">
-        <v>541721.716504</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1793883.083799</v>
-      </c>
-      <c r="L14" t="n">
-        <v>116695.426536</v>
-      </c>
-      <c r="M14" t="n">
-        <v>4010677.202929</v>
-      </c>
-      <c r="N14" t="n">
-        <v>236753.8</v>
-      </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="n">
-        <v>45702698.954129</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1454957.993778</v>
-      </c>
-      <c r="R14" t="n">
-        <v>62981025.07272</v>
-      </c>
-      <c r="S14" t="n">
-        <v>5985784.675753</v>
-      </c>
-      <c r="T14" t="n">
-        <v>286784.022132</v>
-      </c>
-      <c r="U14" t="n">
-        <v>419671.613777</v>
-      </c>
-      <c r="V14" t="n">
-        <v>12243188.870088</v>
-      </c>
-      <c r="W14" t="n">
-        <v>486095.152674</v>
-      </c>
-      <c r="X14" t="n">
-        <v>882554.553131</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>3443936.480797</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>8004771.176905</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>112029.62</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>1764592.096493</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>15564495.09941</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>857456.470997</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>164351.74</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>4339920.318281</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>705473.350045</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>39073.58</v>
+        <v>32287</v>
       </c>
     </row>
   </sheetData>
